--- a/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/1_TMA/Mark Input Sheet ANL 2020.xlsx
+++ b/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/1_TMA/Mark Input Sheet ANL 2020.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mechelle\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem1_ANL252_Python_4_Biz\3_Lecturer\1_TMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27615749-535E-4CC6-8C43-F5C54BC6CF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="10770"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
-    <sheet name="Example" sheetId="2" r:id="rId2"/>
+    <sheet name="Student_Names_Sorted" sheetId="3" r:id="rId2"/>
+    <sheet name="Student_Names_Sorted (2)" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,14 +25,74 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0B821C8E-5B18-49BE-BA89-104E286A1BA9}</author>
+    <author>tc={252CEE4E-E876-40BF-BD94-E7907182162A}</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{0B821C8E-5B18-49BE-BA89-104E286A1BA9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previous GBA 6</t>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="1" shapeId="0" xr:uid="{252CEE4E-E876-40BF-BD94-E7907182162A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previous GBA 2</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={454E2AAE-220D-4944-A506-19FCFD828914}</author>
+    <author>tc={34188608-FBD7-429D-B3BC-A674C38FA75C}</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{454E2AAE-220D-4944-A506-19FCFD828914}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previous GBA 6</t>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="1" shapeId="0" xr:uid="{34188608-FBD7-429D-B3BC-A674C38FA75C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previous GBA 2</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="139">
   <si>
     <t>Mark</t>
   </si>
@@ -162,18 +224,315 @@
 Course coordinator will need to verify marker submission. HoP will do random sampling of such cases to check.
 </t>
   </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>SIS Login ID</t>
+  </si>
+  <si>
+    <t>GBA Group</t>
+  </si>
+  <si>
+    <t>CHAN HUAN HUENG BRANDON</t>
+  </si>
+  <si>
+    <t>brandonchan004</t>
+  </si>
+  <si>
+    <t>BRIAN JUN CHO</t>
+  </si>
+  <si>
+    <t>briancho001</t>
+  </si>
+  <si>
+    <t>TAY BAN CHIN DAVE (ZHENG WANQING)</t>
+  </si>
+  <si>
+    <t>davetay001</t>
+  </si>
+  <si>
+    <t>TEO WEI LIANG, JACK</t>
+  </si>
+  <si>
+    <t>jackteo002</t>
+  </si>
+  <si>
+    <t>RAYNER FOO SHI HAN</t>
+  </si>
+  <si>
+    <t>raynerfoo001</t>
+  </si>
+  <si>
+    <t>CHIA WAN QI, FELICIA</t>
+  </si>
+  <si>
+    <t>feliciachia004</t>
+  </si>
+  <si>
+    <t>JAZLYN J BINTE ABDULLAH</t>
+  </si>
+  <si>
+    <t>jazlynj001</t>
+  </si>
+  <si>
+    <t>CHEN YAOGUANGHUA</t>
+  </si>
+  <si>
+    <t>chenyaoguanghua001</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FIRDAUS BIN SARDI</t>
+  </si>
+  <si>
+    <t>firdaus063</t>
+  </si>
+  <si>
+    <t>ANG CHEER NENG</t>
+  </si>
+  <si>
+    <t>cnang002</t>
+  </si>
+  <si>
+    <t>SHAIFUL BIN JAFAR</t>
+  </si>
+  <si>
+    <t>shaiful009</t>
+  </si>
+  <si>
+    <t>TAN JIE YI</t>
+  </si>
+  <si>
+    <t>jytan046</t>
+  </si>
+  <si>
+    <t>CHEN JING</t>
+  </si>
+  <si>
+    <t>chenjing001</t>
+  </si>
+  <si>
+    <t>GARY LEW QI HAN</t>
+  </si>
+  <si>
+    <t>garylew002</t>
+  </si>
+  <si>
+    <t>KOH REN YI, DOMINIC</t>
+  </si>
+  <si>
+    <t>dominickoh001</t>
+  </si>
+  <si>
+    <t>MOHAMED NURHAIKAL BIN MOHAMED SHARIFF</t>
+  </si>
+  <si>
+    <t>nurhaikal001</t>
+  </si>
+  <si>
+    <t>DAMIAN SIM DING XIAN</t>
+  </si>
+  <si>
+    <t>damiansim001</t>
+  </si>
+  <si>
+    <t>ANG YONG XIANG</t>
+  </si>
+  <si>
+    <t>yxang005</t>
+  </si>
+  <si>
+    <t>IFFAH FARAHSYAZANA BINTE ABU BAKAR</t>
+  </si>
+  <si>
+    <t>iffah003</t>
+  </si>
+  <si>
+    <t>TAN JIA YI, SHANNON</t>
+  </si>
+  <si>
+    <t>shannontan002</t>
+  </si>
+  <si>
+    <t>TEH ZI JING</t>
+  </si>
+  <si>
+    <t>zjteh001</t>
+  </si>
+  <si>
+    <t>TEY JIN HEAN</t>
+  </si>
+  <si>
+    <t>jhtey002</t>
+  </si>
+  <si>
+    <t>JANSEN EDMUND JOSEPH JUNIOR</t>
+  </si>
+  <si>
+    <t>jansen003</t>
+  </si>
+  <si>
+    <t>PRABU S/O RAMASAMY</t>
+  </si>
+  <si>
+    <t>prabu003</t>
+  </si>
+  <si>
+    <t>CHIA ZHI SHENG KEATH</t>
+  </si>
+  <si>
+    <t>keathchia001</t>
+  </si>
+  <si>
+    <t>CHONG XIN HUI SANDY</t>
+  </si>
+  <si>
+    <t>sandychong001</t>
+  </si>
+  <si>
+    <t>TEO MENG HEE TIFFANY</t>
+  </si>
+  <si>
+    <t>tiffanyteo001</t>
+  </si>
+  <si>
+    <t>XIONG XIAOFENG</t>
+  </si>
+  <si>
+    <t>xfxiong001</t>
+  </si>
+  <si>
+    <t>NG ZI YA</t>
+  </si>
+  <si>
+    <t>zyng008</t>
+  </si>
+  <si>
+    <t>ANGEL LING YONG ENG</t>
+  </si>
+  <si>
+    <t>angelling001</t>
+  </si>
+  <si>
+    <t>KERRY KUNG WEI JIE</t>
+  </si>
+  <si>
+    <t>kerrykung001</t>
+  </si>
+  <si>
+    <t>LIM WEI QUAN</t>
+  </si>
+  <si>
+    <t>wqlim010</t>
+  </si>
+  <si>
+    <t>SHAMINI D/O ELIAPERUMAL</t>
+  </si>
+  <si>
+    <t>shamini012</t>
+  </si>
+  <si>
+    <t>CHONG WENG YEW</t>
+  </si>
+  <si>
+    <t>wychong004</t>
+  </si>
+  <si>
+    <t>NG KUO XUN</t>
+  </si>
+  <si>
+    <t>kxng004</t>
+  </si>
+  <si>
+    <t>NUR FIRDAUS BIN MOHAMED RIDUAN</t>
+  </si>
+  <si>
+    <t>nurfirdaus008</t>
+  </si>
+  <si>
+    <t>ANG DING YI</t>
+  </si>
+  <si>
+    <t>dyang002</t>
+  </si>
+  <si>
+    <t>BRANDAN CHIA JIAN HAO</t>
+  </si>
+  <si>
+    <t>brandanchia001</t>
+  </si>
+  <si>
+    <t>JANELLE LIM SOCK HUI</t>
+  </si>
+  <si>
+    <t>janellelim001</t>
+  </si>
+  <si>
+    <t>LEONA INEZ TAN SHENG GUAT</t>
+  </si>
+  <si>
+    <t>leonatan001</t>
+  </si>
+  <si>
+    <t>DANIEL ONG SONG HNG</t>
+  </si>
+  <si>
+    <t>danielong005</t>
+  </si>
+  <si>
+    <t>KHALID SYAKIR BIN MOHD YUZZRI</t>
+  </si>
+  <si>
+    <t>khalidsyakir002</t>
+  </si>
+  <si>
+    <t>NUR JANNAH BINTE YAZIT</t>
+  </si>
+  <si>
+    <t>nurjannah004</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1c </t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>Not submitted</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,8 +579,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +613,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -295,20 +674,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -324,16 +779,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -343,20 +834,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -417,7 +913,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -518,22 +1013,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.128205128205128E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.564102564102564E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.17948717948717949</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.10256410256410256</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -545,7 +1040,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.564102564102564E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,335 +1202,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Percentage</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Example!$H$8:$H$18</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>85-100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80-84</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75-79</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70-74</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65-69</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>&lt;40</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Example!$I$8:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.11538461538461539</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8461538461538464E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8461538461538464E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15384615384615385</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15384615384615385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11538461538461539</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.6923076923076927E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.6923076923076927E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8461538461538464E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.6923076923076927E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11538461538461539</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-78EB-4234-8185-F5ED9BB6C945}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="41"/>
-        <c:overlap val="-27"/>
-        <c:axId val="536670728"/>
-        <c:axId val="115326064"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="536670728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="115326064"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="115326064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="536670728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1076,550 +1242,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2163,25 +1786,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Down Arrow 1"/>
+        <xdr:cNvPr id="2" name="Down Arrow 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8029575" y="5038725"/>
-          <a:ext cx="990600" cy="1323975"/>
+          <a:off x="7981950" y="4924425"/>
+          <a:ext cx="990600" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -2229,7 +1858,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2289,43 +1924,136 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1012031</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>51911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>229743</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166973</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFABD1D1-94EE-A61A-90B2-A32DF3D0E062}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="10084594" y="432911"/>
+          <a:ext cx="991743" cy="496062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76676</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1066038</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C9CB2B-63F1-498F-B062-A0ED677C3CFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6086951" y="7264241"/>
+          <a:ext cx="989362" cy="522732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Munish Kumar" id="{B5D24813-819C-4439-B4A9-2C22CA1BE774}" userId="S::mkumar@erce.energy::9ae06b6e-a1f0-45ab-b9ac-eebc010a9474" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2589,12 +2317,34 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D10" dT="2023-01-31T10:37:36.90" personId="{B5D24813-819C-4439-B4A9-2C22CA1BE774}" id="{0B821C8E-5B18-49BE-BA89-104E286A1BA9}">
+    <text>Previous GBA 6</text>
+  </threadedComment>
+  <threadedComment ref="D24" dT="2023-01-31T10:37:16.96" personId="{B5D24813-819C-4439-B4A9-2C22CA1BE774}" id="{252CEE4E-E876-40BF-BD94-E7907182162A}">
+    <text>Previous GBA 2</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D10" dT="2023-01-31T10:37:36.90" personId="{B5D24813-819C-4439-B4A9-2C22CA1BE774}" id="{454E2AAE-220D-4944-A506-19FCFD828914}">
+    <text>Previous GBA 6</text>
+  </threadedComment>
+  <threadedComment ref="D43" dT="2023-01-31T10:37:16.96" personId="{B5D24813-819C-4439-B4A9-2C22CA1BE774}" id="{34188608-FBD7-429D-B3BC-A674C38FA75C}">
+    <text>Previous GBA 2</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,7 +2376,10 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="8">
+        <f>Student_Names_Sorted!K3</f>
+        <v>62</v>
+      </c>
       <c r="E2" s="18"/>
       <c r="F2" s="1"/>
     </row>
@@ -2635,45 +2388,57 @@
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
       <c r="E3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="12">
         <f>COUNTIF($B$2:$B$61,"&gt;=0")</f>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8">
+        <f>Student_Names_Sorted!K5</f>
+        <v>81</v>
+      </c>
       <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="str">
+      <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v/>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8">
+        <f>Student_Names_Sorted!K6</f>
+        <v>67</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="str">
+      <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v/>
+        <v>8.0915810698853115</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <f>Student_Names_Sorted!K7</f>
+        <v>71</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2684,7 +2449,10 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8">
+        <f>Student_Names_Sorted!K8</f>
+        <v>65</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2705,7 +2473,10 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8">
+        <f>Student_Names_Sorted!K9</f>
+        <v>65</v>
+      </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
@@ -2718,16 +2489,19 @@
       <c r="H8" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="19" t="str">
+      <c r="I8" s="19">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85"))/$F$3,"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8">
+        <f>Student_Names_Sorted!K10</f>
+        <v>65</v>
+      </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
@@ -2740,16 +2514,19 @@
       <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="16" t="str">
+      <c r="I9" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3,"")</f>
-        <v/>
+        <v>5.128205128205128E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8">
+        <f>Student_Names_Sorted!K11</f>
+        <v>70</v>
+      </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
@@ -2762,16 +2539,19 @@
       <c r="H10" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="16" t="str">
+      <c r="I10" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75"))/$F$3,"")</f>
-        <v/>
+        <v>2.564102564102564E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8">
+        <f>Student_Names_Sorted!K12</f>
+        <v>60</v>
+      </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
@@ -2784,16 +2564,19 @@
       <c r="H11" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
-        <v/>
+        <v>0.17948717948717949</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8">
+        <f>Student_Names_Sorted!K13</f>
+        <v>65</v>
+      </c>
       <c r="E12" t="s">
         <v>31</v>
       </c>
@@ -2806,16 +2589,19 @@
       <c r="H12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="16" t="str">
+      <c r="I12" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
-        <v/>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8">
+        <f>Student_Names_Sorted!K14</f>
+        <v>72</v>
+      </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
@@ -2828,16 +2614,19 @@
       <c r="H13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="16" t="str">
+      <c r="I13" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60"))/$F$3,"")</f>
-        <v/>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8">
+        <f>Student_Names_Sorted!K15</f>
+        <v>73</v>
+      </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
@@ -2850,9 +2639,9 @@
       <c r="H14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="16" t="str">
+      <c r="I14" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;60")-COUNTIF($B$2:$B$61,"&lt;55"))/$F$3,"")</f>
-        <v/>
+        <v>0.10256410256410256</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2860,6 +2649,9 @@
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
       <c r="E15" t="s">
         <v>3</v>
       </c>
@@ -2872,16 +2664,19 @@
       <c r="H15" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="16" t="str">
+      <c r="I15" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;55")-COUNTIF($B$2:$B$61,"&lt;50"))/$F$3,"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="8">
+        <f>Student_Names_Sorted!K17</f>
+        <v>65</v>
+      </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
@@ -2894,16 +2689,19 @@
       <c r="H16" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="16" t="str">
+      <c r="I16" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;50")-COUNTIF($B$2:$B$61,"&lt;45"))/$F$3,"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="8">
+        <f>Student_Names_Sorted!K18</f>
+        <v>57</v>
+      </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
@@ -2916,16 +2714,19 @@
       <c r="H17" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="16" t="str">
+      <c r="I17" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;45")-COUNTIF($B$2:$B$61,"&lt;40"))/$F$3,"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="8">
+        <f>Student_Names_Sorted!K19</f>
+        <v>64</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2938,295 +2739,339 @@
       <c r="H18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="17" t="str">
+      <c r="I18" s="17">
         <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
-        <v/>
+        <v>2.564102564102564E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="8">
+        <f>Student_Names_Sorted!K20</f>
+        <v>65</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="8">
+        <f>Student_Names_Sorted!K21</f>
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="8">
+        <f>Student_Names_Sorted!K22</f>
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="8">
+        <f>Student_Names_Sorted!K23</f>
+        <v>81</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="8">
+        <f>Student_Names_Sorted!K24</f>
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="8">
+        <f>Student_Names_Sorted!K25</f>
+        <v>65</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="8">
+        <f>Student_Names_Sorted!K26</f>
+        <v>63</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="8">
+        <f>Student_Names_Sorted!K27</f>
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="8">
+        <f>Student_Names_Sorted!K28</f>
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="8">
+        <f>Student_Names_Sorted!K29</f>
+        <v>72</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="8">
+        <f>Student_Names_Sorted!K30</f>
+        <v>64</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="8">
+        <f>Student_Names_Sorted!K31</f>
+        <v>64</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="8">
+        <f>Student_Names_Sorted!K32</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="8">
+        <f>Student_Names_Sorted!K33</f>
+        <v>61</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:11" ht="318.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="8">
+        <f>Student_Names_Sorted!K34</f>
+        <v>58</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="D34" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="22"/>
+      <c r="B34" s="8">
+        <f>Student_Names_Sorted!K35</f>
+        <v>67</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="8"/>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="8">
+        <f>Student_Names_Sorted!K37</f>
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="8">
+        <f>Student_Names_Sorted!K38</f>
+        <v>65</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="8"/>
+      <c r="B38" s="8">
+        <f>Student_Names_Sorted!K39</f>
+        <v>63</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="8">
+        <f>Student_Names_Sorted!K40</f>
+        <v>58</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="8">
+        <f>Student_Names_Sorted!K41</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="8">
+        <f>Student_Names_Sorted!K42</f>
+        <v>66</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="8">
+        <f>Student_Names_Sorted!K43</f>
+        <v>64</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="8"/>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="8">
+        <f>Student_Names_Sorted!K45</f>
+        <v>71</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>44</v>
-      </c>
+      <c r="A45" s="6"/>
       <c r="B45" s="8"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>45</v>
-      </c>
+      <c r="A46" s="6"/>
       <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>46</v>
-      </c>
+      <c r="A47" s="6"/>
       <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>47</v>
-      </c>
+      <c r="A48" s="6"/>
       <c r="B48" s="8"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>48</v>
-      </c>
+      <c r="A49" s="6"/>
       <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>49</v>
-      </c>
+      <c r="A50" s="6"/>
       <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>50</v>
-      </c>
+      <c r="A51" s="6"/>
       <c r="B51" s="8"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>51</v>
-      </c>
+      <c r="A52" s="6"/>
       <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>52</v>
-      </c>
+      <c r="A53" s="6"/>
       <c r="B53" s="8"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>53</v>
-      </c>
+      <c r="A54" s="6"/>
       <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>54</v>
-      </c>
+      <c r="A55" s="6"/>
       <c r="B55" s="8"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>55</v>
-      </c>
+      <c r="A56" s="6"/>
       <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <v>56</v>
-      </c>
+      <c r="A57" s="6"/>
       <c r="B57" s="8"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>57</v>
-      </c>
+      <c r="A58" s="6"/>
       <c r="B58" s="8"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>58</v>
-      </c>
+      <c r="A59" s="6"/>
       <c r="B59" s="8"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>59</v>
-      </c>
+      <c r="A60" s="6"/>
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
+      <c r="A61" s="7"/>
       <c r="B61" s="9"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="D33:K33"/>
   </mergeCells>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"or(""&lt;60"",""&gt;64"")"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3235,685 +3080,3520 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6652FA99-3288-44D6-A182-1B77424038C7}">
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="23" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="22.42578125" style="23" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="11.5703125" style="23" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="7" style="23" customWidth="1" collapsed="1"/>
+    <col min="6" max="11" width="7" style="23" customWidth="1"/>
+    <col min="12" max="12" width="29" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27" style="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28">
+        <v>20</v>
+      </c>
+      <c r="F2" s="28">
+        <v>15</v>
+      </c>
+      <c r="G2" s="28">
+        <v>10</v>
+      </c>
+      <c r="H2" s="28">
+        <v>20</v>
+      </c>
+      <c r="I2" s="28">
+        <v>10</v>
+      </c>
+      <c r="J2" s="28">
+        <v>25</v>
+      </c>
+      <c r="K2" s="28">
+        <f>SUM(E2:J2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="29">
+        <v>53913</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="E3" s="29">
+        <v>12</v>
+      </c>
+      <c r="F3" s="29">
+        <v>9</v>
+      </c>
+      <c r="G3" s="29">
+        <v>7</v>
+      </c>
+      <c r="H3" s="29">
+        <v>12</v>
+      </c>
+      <c r="I3" s="29">
+        <v>8</v>
+      </c>
+      <c r="J3" s="29">
+        <v>14</v>
+      </c>
+      <c r="K3" s="29">
+        <f t="shared" ref="K3:K45" si="0">SUM(E3:J3)</f>
+        <v>62</v>
+      </c>
+      <c r="L3" s="30"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="27">
+        <v>68105</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="27">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0</v>
+      </c>
+      <c r="H4" s="27">
+        <v>0</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0</v>
+      </c>
+      <c r="J4" s="27">
+        <v>0</v>
+      </c>
+      <c r="K4" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="29">
+        <v>84997</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29">
+        <v>17</v>
+      </c>
+      <c r="F5" s="29">
+        <v>11</v>
+      </c>
+      <c r="G5" s="29">
+        <v>8</v>
+      </c>
+      <c r="H5" s="29">
+        <v>17</v>
+      </c>
+      <c r="I5" s="29">
+        <v>8</v>
+      </c>
+      <c r="J5" s="29">
+        <v>20</v>
+      </c>
+      <c r="K5" s="29">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="29">
+        <v>53323</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="29">
+        <v>13</v>
+      </c>
+      <c r="F6" s="29">
+        <v>12</v>
+      </c>
+      <c r="G6" s="29">
+        <v>7</v>
+      </c>
+      <c r="H6" s="29">
+        <v>12</v>
+      </c>
+      <c r="I6" s="29">
+        <v>6</v>
+      </c>
+      <c r="J6" s="29">
+        <v>17</v>
+      </c>
+      <c r="K6" s="29">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="29">
+        <v>94596</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="29">
+        <v>2</v>
+      </c>
+      <c r="E7" s="29">
+        <v>13</v>
+      </c>
+      <c r="F7" s="29">
+        <v>8</v>
+      </c>
+      <c r="G7" s="29">
+        <v>8</v>
+      </c>
+      <c r="H7" s="29">
+        <v>14</v>
+      </c>
+      <c r="I7" s="29">
+        <v>8</v>
+      </c>
+      <c r="J7" s="29">
+        <v>20</v>
+      </c>
+      <c r="K7" s="29">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="29">
+        <v>91993</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="29">
+        <v>2</v>
+      </c>
+      <c r="E8" s="29">
+        <v>14</v>
+      </c>
+      <c r="F8" s="29">
+        <v>9</v>
+      </c>
+      <c r="G8" s="29">
+        <v>6</v>
+      </c>
+      <c r="H8" s="29">
+        <v>11</v>
+      </c>
+      <c r="I8" s="29">
+        <v>7</v>
+      </c>
+      <c r="J8" s="29">
+        <v>18</v>
+      </c>
+      <c r="K8" s="29">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="29">
+        <v>45245</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="29">
+        <v>2</v>
+      </c>
+      <c r="E9" s="29">
+        <v>17</v>
+      </c>
+      <c r="F9" s="29">
+        <v>8</v>
+      </c>
+      <c r="G9" s="29">
+        <v>8</v>
+      </c>
+      <c r="H9" s="29">
+        <v>14</v>
+      </c>
+      <c r="I9" s="29">
+        <v>6</v>
+      </c>
+      <c r="J9" s="29">
+        <v>12</v>
+      </c>
+      <c r="K9" s="29">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="29">
+        <v>101652</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="29">
+        <v>2</v>
+      </c>
+      <c r="E10" s="29">
+        <v>13</v>
+      </c>
+      <c r="F10" s="29">
+        <v>9</v>
+      </c>
+      <c r="G10" s="29">
+        <v>8</v>
+      </c>
+      <c r="H10" s="29">
+        <v>14</v>
+      </c>
+      <c r="I10" s="29">
+        <v>7</v>
+      </c>
+      <c r="J10" s="29">
+        <v>14</v>
+      </c>
+      <c r="K10" s="29">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="29">
+        <v>54656</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="29">
+        <v>3</v>
+      </c>
+      <c r="E11" s="29">
+        <v>12</v>
+      </c>
+      <c r="F11" s="29">
+        <v>10</v>
+      </c>
+      <c r="G11" s="29">
+        <v>7</v>
+      </c>
+      <c r="H11" s="29">
+        <v>14</v>
+      </c>
+      <c r="I11" s="29">
+        <v>7</v>
+      </c>
+      <c r="J11" s="29">
+        <v>20</v>
+      </c>
+      <c r="K11" s="29">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="29">
+        <v>100126</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="29">
+        <v>3</v>
+      </c>
+      <c r="E12" s="29">
+        <v>15</v>
+      </c>
+      <c r="F12" s="29">
+        <v>7</v>
+      </c>
+      <c r="G12" s="29">
+        <v>7</v>
+      </c>
+      <c r="H12" s="29">
+        <v>10</v>
+      </c>
+      <c r="I12" s="29">
+        <v>7</v>
+      </c>
+      <c r="J12" s="29">
+        <v>14</v>
+      </c>
+      <c r="K12" s="29">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="29">
+        <v>100404</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="29">
+        <v>3</v>
+      </c>
+      <c r="E13" s="29">
+        <v>15</v>
+      </c>
+      <c r="F13" s="29">
+        <v>9</v>
+      </c>
+      <c r="G13" s="29">
+        <v>6</v>
+      </c>
+      <c r="H13" s="29">
+        <v>13</v>
+      </c>
+      <c r="I13" s="29">
+        <v>6</v>
+      </c>
+      <c r="J13" s="29">
+        <v>16</v>
+      </c>
+      <c r="K13" s="29">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="29">
+        <v>99559</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="29">
+        <v>3</v>
+      </c>
+      <c r="E14" s="29">
+        <v>12</v>
+      </c>
+      <c r="F14" s="29">
+        <v>10</v>
+      </c>
+      <c r="G14" s="29">
+        <v>9</v>
+      </c>
+      <c r="H14" s="29">
+        <v>18</v>
+      </c>
+      <c r="I14" s="29">
+        <v>8</v>
+      </c>
+      <c r="J14" s="29">
+        <v>15</v>
+      </c>
+      <c r="K14" s="29">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="29">
+        <v>53506</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="29">
+        <v>4</v>
+      </c>
+      <c r="E15" s="29">
+        <v>12</v>
+      </c>
+      <c r="F15" s="29">
+        <v>7</v>
+      </c>
+      <c r="G15" s="29">
+        <v>7</v>
+      </c>
+      <c r="H15" s="29">
+        <v>19</v>
+      </c>
+      <c r="I15" s="29">
+        <v>8</v>
+      </c>
+      <c r="J15" s="29">
+        <v>20</v>
+      </c>
+      <c r="K15" s="29">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="27">
+        <v>102643</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="27">
+        <v>4</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0</v>
+      </c>
+      <c r="H16" s="27">
+        <v>0</v>
+      </c>
+      <c r="I16" s="27">
+        <v>0</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0</v>
+      </c>
+      <c r="K16" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="29">
+        <v>49781</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="29">
+        <v>4</v>
+      </c>
+      <c r="E17" s="29">
+        <v>13</v>
+      </c>
+      <c r="F17" s="29">
+        <v>12</v>
+      </c>
+      <c r="G17" s="29">
+        <v>7</v>
+      </c>
+      <c r="H17" s="29">
+        <v>13</v>
+      </c>
+      <c r="I17" s="29">
+        <v>5</v>
+      </c>
+      <c r="J17" s="29">
+        <v>15</v>
+      </c>
+      <c r="K17" s="29">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="29">
+        <v>82324</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="29">
+        <v>4</v>
+      </c>
+      <c r="E18" s="29">
+        <v>12</v>
+      </c>
+      <c r="F18" s="29">
+        <v>9</v>
+      </c>
+      <c r="G18" s="29">
+        <v>7</v>
+      </c>
+      <c r="H18" s="29">
+        <v>10</v>
+      </c>
+      <c r="I18" s="29">
+        <v>7</v>
+      </c>
+      <c r="J18" s="29">
+        <v>12</v>
+      </c>
+      <c r="K18" s="29">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="29">
+        <v>99609</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="29">
+        <v>5</v>
+      </c>
+      <c r="E19" s="29">
+        <v>13</v>
+      </c>
+      <c r="F19" s="29">
+        <v>8</v>
+      </c>
+      <c r="G19" s="29">
+        <v>7</v>
+      </c>
+      <c r="H19" s="29">
+        <v>12</v>
+      </c>
+      <c r="I19" s="29">
+        <v>7</v>
+      </c>
+      <c r="J19" s="29">
+        <v>17</v>
+      </c>
+      <c r="K19" s="29">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="29">
+        <v>100773</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="29">
+        <v>5</v>
+      </c>
+      <c r="E20" s="29">
+        <v>13</v>
+      </c>
+      <c r="F20" s="29">
+        <v>11</v>
+      </c>
+      <c r="G20" s="29">
+        <v>7</v>
+      </c>
+      <c r="H20" s="29">
+        <v>13</v>
+      </c>
+      <c r="I20" s="29">
+        <v>8</v>
+      </c>
+      <c r="J20" s="29">
+        <v>13</v>
+      </c>
+      <c r="K20" s="29">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="29">
+        <v>85799</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="29">
+        <v>5</v>
+      </c>
+      <c r="E21" s="29">
+        <v>14</v>
+      </c>
+      <c r="F21" s="29">
+        <v>8</v>
+      </c>
+      <c r="G21" s="29">
+        <v>7</v>
+      </c>
+      <c r="H21" s="29">
+        <v>0</v>
+      </c>
+      <c r="I21" s="29">
+        <v>0</v>
+      </c>
+      <c r="J21" s="29">
+        <v>0</v>
+      </c>
+      <c r="K21" s="29">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="29">
+        <v>74763</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="29">
+        <v>5</v>
+      </c>
+      <c r="E22" s="29">
+        <v>12</v>
+      </c>
+      <c r="F22" s="29">
+        <v>9</v>
+      </c>
+      <c r="G22" s="29">
+        <v>7</v>
+      </c>
+      <c r="H22" s="29">
+        <v>13</v>
+      </c>
+      <c r="I22" s="29">
+        <v>7</v>
+      </c>
+      <c r="J22" s="29">
+        <v>13</v>
+      </c>
+      <c r="K22" s="29">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="29">
+        <v>93200</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="29">
+        <v>6</v>
+      </c>
+      <c r="E23" s="29">
+        <v>17</v>
+      </c>
+      <c r="F23" s="29">
+        <v>12</v>
+      </c>
+      <c r="G23" s="29">
+        <v>7</v>
+      </c>
+      <c r="H23" s="29">
+        <v>18</v>
+      </c>
+      <c r="I23" s="29">
+        <v>7</v>
+      </c>
+      <c r="J23" s="29">
+        <v>20</v>
+      </c>
+      <c r="K23" s="29">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="29">
+        <v>37748</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="29">
+        <v>6</v>
+      </c>
+      <c r="E24" s="29">
+        <v>13</v>
+      </c>
+      <c r="F24" s="29">
+        <v>8</v>
+      </c>
+      <c r="G24" s="29">
+        <v>7</v>
+      </c>
+      <c r="H24" s="29">
+        <v>14</v>
+      </c>
+      <c r="I24" s="29">
+        <v>6</v>
+      </c>
+      <c r="J24" s="29">
+        <v>14</v>
+      </c>
+      <c r="K24" s="29">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="L24" s="30"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="29">
+        <v>66876</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="29">
+        <v>6</v>
+      </c>
+      <c r="E25" s="29">
+        <v>14</v>
+      </c>
+      <c r="F25" s="29">
+        <v>9</v>
+      </c>
+      <c r="G25" s="29">
+        <v>7</v>
+      </c>
+      <c r="H25" s="29">
+        <v>14</v>
+      </c>
+      <c r="I25" s="29">
+        <v>8</v>
+      </c>
+      <c r="J25" s="29">
+        <v>13</v>
+      </c>
+      <c r="K25" s="29">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="L25" s="30"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="29">
+        <v>76252</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="29">
+        <v>6</v>
+      </c>
+      <c r="E26" s="29">
+        <v>14</v>
+      </c>
+      <c r="F26" s="29">
+        <v>7</v>
+      </c>
+      <c r="G26" s="29">
+        <v>7</v>
+      </c>
+      <c r="H26" s="29">
+        <v>13</v>
+      </c>
+      <c r="I26" s="29">
+        <v>7</v>
+      </c>
+      <c r="J26" s="29">
+        <v>15</v>
+      </c>
+      <c r="K26" s="29">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="L26" s="30"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="29">
+        <v>100049</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="29">
+        <v>7</v>
+      </c>
+      <c r="E27" s="29">
+        <v>10</v>
+      </c>
+      <c r="F27" s="29">
+        <v>9</v>
+      </c>
+      <c r="G27" s="29">
+        <v>7</v>
+      </c>
+      <c r="H27" s="29">
+        <v>12</v>
+      </c>
+      <c r="I27" s="29">
+        <v>6</v>
+      </c>
+      <c r="J27" s="29">
+        <v>20</v>
+      </c>
+      <c r="K27" s="29">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="L27" s="30"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="29">
+        <v>74533</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="29">
+        <v>7</v>
+      </c>
+      <c r="E28" s="29">
+        <v>10</v>
+      </c>
+      <c r="F28" s="29">
+        <v>7</v>
+      </c>
+      <c r="G28" s="29">
+        <v>7</v>
+      </c>
+      <c r="H28" s="29">
+        <v>14</v>
+      </c>
+      <c r="I28" s="29">
+        <v>8</v>
+      </c>
+      <c r="J28" s="29">
+        <v>13</v>
+      </c>
+      <c r="K28" s="29">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="L28" s="30"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="29">
+        <v>67841</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="29">
+        <v>7</v>
+      </c>
+      <c r="E29" s="29">
+        <v>15</v>
+      </c>
+      <c r="F29" s="29">
+        <v>10</v>
+      </c>
+      <c r="G29" s="29">
+        <v>8</v>
+      </c>
+      <c r="H29" s="29">
+        <v>13</v>
+      </c>
+      <c r="I29" s="29">
+        <v>8</v>
+      </c>
+      <c r="J29" s="29">
+        <v>18</v>
+      </c>
+      <c r="K29" s="29">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="29">
+        <v>74456</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="29">
+        <v>7</v>
+      </c>
+      <c r="E30" s="29">
+        <v>13</v>
+      </c>
+      <c r="F30" s="29">
+        <v>12</v>
+      </c>
+      <c r="G30" s="29">
+        <v>7</v>
+      </c>
+      <c r="H30" s="29">
+        <v>12</v>
+      </c>
+      <c r="I30" s="29">
+        <v>6</v>
+      </c>
+      <c r="J30" s="29">
+        <v>14</v>
+      </c>
+      <c r="K30" s="29">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="29">
+        <v>102142</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="29">
+        <v>8</v>
+      </c>
+      <c r="E31" s="29">
+        <v>12</v>
+      </c>
+      <c r="F31" s="29">
+        <v>8</v>
+      </c>
+      <c r="G31" s="29">
+        <v>7</v>
+      </c>
+      <c r="H31" s="29">
+        <v>13</v>
+      </c>
+      <c r="I31" s="29">
+        <v>7</v>
+      </c>
+      <c r="J31" s="29">
+        <v>17</v>
+      </c>
+      <c r="K31" s="29">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="L31" s="30"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="29">
+        <v>93102</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="29">
+        <v>8</v>
+      </c>
+      <c r="E32" s="29">
+        <v>15</v>
+      </c>
+      <c r="F32" s="29">
+        <v>12</v>
+      </c>
+      <c r="G32" s="29">
+        <v>7</v>
+      </c>
+      <c r="H32" s="29">
+        <v>14</v>
+      </c>
+      <c r="I32" s="29">
+        <v>7</v>
+      </c>
+      <c r="J32" s="29">
+        <v>20</v>
+      </c>
+      <c r="K32" s="29">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="L32" s="30"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="29">
+        <v>93274</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="29">
+        <v>8</v>
+      </c>
+      <c r="E33" s="29">
+        <v>14</v>
+      </c>
+      <c r="F33" s="29">
+        <v>7</v>
+      </c>
+      <c r="G33" s="29">
+        <v>7</v>
+      </c>
+      <c r="H33" s="29">
+        <v>12</v>
+      </c>
+      <c r="I33" s="29">
+        <v>6</v>
+      </c>
+      <c r="J33" s="29">
+        <v>15</v>
+      </c>
+      <c r="K33" s="29">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="L33" s="30"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="29">
+        <v>74614</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="29">
+        <v>8</v>
+      </c>
+      <c r="E34" s="29">
+        <v>15</v>
+      </c>
+      <c r="F34" s="29">
+        <v>9</v>
+      </c>
+      <c r="G34" s="29">
+        <v>8</v>
+      </c>
+      <c r="H34" s="29">
+        <v>7</v>
+      </c>
+      <c r="I34" s="29">
+        <v>6</v>
+      </c>
+      <c r="J34" s="29">
+        <v>13</v>
+      </c>
+      <c r="K34" s="29">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="L34" s="30"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="29">
+        <v>86123</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="29">
+        <v>9</v>
+      </c>
+      <c r="E35" s="29">
+        <v>14</v>
+      </c>
+      <c r="F35" s="29">
+        <v>9</v>
+      </c>
+      <c r="G35" s="29">
+        <v>8</v>
+      </c>
+      <c r="H35" s="29">
+        <v>14</v>
+      </c>
+      <c r="I35" s="29">
+        <v>7</v>
+      </c>
+      <c r="J35" s="29">
+        <v>15</v>
+      </c>
+      <c r="K35" s="29">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="L35" s="30"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="27">
+        <v>55457</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="27">
+        <v>9</v>
+      </c>
+      <c r="E36" s="27">
+        <v>0</v>
+      </c>
+      <c r="F36" s="27">
+        <v>0</v>
+      </c>
+      <c r="G36" s="27">
+        <v>0</v>
+      </c>
+      <c r="H36" s="27">
+        <v>0</v>
+      </c>
+      <c r="I36" s="27">
+        <v>0</v>
+      </c>
+      <c r="J36" s="27">
+        <v>0</v>
+      </c>
+      <c r="K36" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="29">
+        <v>66088</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="29">
+        <v>9</v>
+      </c>
+      <c r="E37" s="29">
+        <v>16</v>
+      </c>
+      <c r="F37" s="29">
+        <v>8</v>
+      </c>
+      <c r="G37" s="29">
+        <v>7</v>
+      </c>
+      <c r="H37" s="29">
+        <v>14</v>
+      </c>
+      <c r="I37" s="29">
+        <v>6</v>
+      </c>
+      <c r="J37" s="29">
+        <v>15</v>
+      </c>
+      <c r="K37" s="29">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="L37" s="30"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="29">
+        <v>82761</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="29">
+        <v>9</v>
+      </c>
+      <c r="E38" s="29">
+        <v>14</v>
+      </c>
+      <c r="F38" s="29">
+        <v>8</v>
+      </c>
+      <c r="G38" s="29">
+        <v>8</v>
+      </c>
+      <c r="H38" s="29">
+        <v>13</v>
+      </c>
+      <c r="I38" s="29">
+        <v>7</v>
+      </c>
+      <c r="J38" s="29">
+        <v>15</v>
+      </c>
+      <c r="K38" s="29">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="29">
+        <v>94554</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="29">
+        <v>10</v>
+      </c>
+      <c r="E39" s="29">
+        <v>17</v>
+      </c>
+      <c r="F39" s="29">
+        <v>12</v>
+      </c>
+      <c r="G39" s="29">
+        <v>5</v>
+      </c>
+      <c r="H39" s="29">
+        <v>10</v>
+      </c>
+      <c r="I39" s="29">
+        <v>7</v>
+      </c>
+      <c r="J39" s="29">
+        <v>12</v>
+      </c>
+      <c r="K39" s="29">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="29">
+        <v>82996</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="29">
+        <v>10</v>
+      </c>
+      <c r="E40" s="29">
+        <v>11</v>
+      </c>
+      <c r="F40" s="29">
+        <v>3</v>
+      </c>
+      <c r="G40" s="29">
+        <v>8</v>
+      </c>
+      <c r="H40" s="29">
+        <v>10</v>
+      </c>
+      <c r="I40" s="29">
+        <v>8</v>
+      </c>
+      <c r="J40" s="29">
+        <v>18</v>
+      </c>
+      <c r="K40" s="29">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="29">
+        <v>84291</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="29">
+        <v>10</v>
+      </c>
+      <c r="E41" s="29">
+        <v>14</v>
+      </c>
+      <c r="F41" s="29">
+        <v>12</v>
+      </c>
+      <c r="G41" s="29">
+        <v>7</v>
+      </c>
+      <c r="H41" s="29">
+        <v>13</v>
+      </c>
+      <c r="I41" s="29">
+        <v>8</v>
+      </c>
+      <c r="J41" s="29">
+        <v>16</v>
+      </c>
+      <c r="K41" s="29">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="L41" s="30"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="29">
+        <v>68852</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="29">
+        <v>10</v>
+      </c>
+      <c r="E42" s="29">
+        <v>17</v>
+      </c>
+      <c r="F42" s="29">
+        <v>10</v>
+      </c>
+      <c r="G42" s="29">
+        <v>6</v>
+      </c>
+      <c r="H42" s="29">
+        <v>11</v>
+      </c>
+      <c r="I42" s="29">
+        <v>7</v>
+      </c>
+      <c r="J42" s="29">
+        <v>15</v>
+      </c>
+      <c r="K42" s="29">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="L42" s="30"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="29">
+        <v>83819</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="29">
+        <v>11</v>
+      </c>
+      <c r="E43" s="29">
+        <v>13</v>
+      </c>
+      <c r="F43" s="29">
+        <v>8</v>
+      </c>
+      <c r="G43" s="29">
+        <v>7</v>
+      </c>
+      <c r="H43" s="29">
+        <v>12</v>
+      </c>
+      <c r="I43" s="29">
+        <v>8</v>
+      </c>
+      <c r="J43" s="29">
+        <v>16</v>
+      </c>
+      <c r="K43" s="29">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="L43" s="30"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="27">
+        <v>100993</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="27">
+        <v>11</v>
+      </c>
+      <c r="E44" s="27">
+        <v>0</v>
+      </c>
+      <c r="F44" s="27">
+        <v>0</v>
+      </c>
+      <c r="G44" s="27">
+        <v>0</v>
+      </c>
+      <c r="H44" s="27">
+        <v>0</v>
+      </c>
+      <c r="I44" s="27">
+        <v>0</v>
+      </c>
+      <c r="J44" s="27">
+        <v>0</v>
+      </c>
+      <c r="K44" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="29">
+        <v>54356</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="29">
+        <v>11</v>
+      </c>
+      <c r="E45" s="29">
+        <v>14</v>
+      </c>
+      <c r="F45" s="29">
+        <v>8</v>
+      </c>
+      <c r="G45" s="29">
+        <v>8</v>
+      </c>
+      <c r="H45" s="29">
+        <v>14</v>
+      </c>
+      <c r="I45" s="29">
+        <v>7</v>
+      </c>
+      <c r="J45" s="29">
+        <v>20</v>
+      </c>
+      <c r="K45" s="29">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="L45" s="30"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="28">
+        <v>20</v>
+      </c>
+      <c r="F46" s="28">
+        <v>15</v>
+      </c>
+      <c r="G46" s="28">
+        <v>10</v>
+      </c>
+      <c r="H46" s="28">
+        <v>20</v>
+      </c>
+      <c r="I46" s="28">
+        <v>10</v>
+      </c>
+      <c r="J46" s="28">
+        <v>25</v>
+      </c>
+      <c r="K46" s="28"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="K47" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1419A229-1D26-4A03-8FEF-D056BE029D05}">
+  <dimension ref="A1:L47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="23" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="22.42578125" style="23" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="11.5703125" style="23" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="7" style="23" customWidth="1" collapsed="1"/>
+    <col min="6" max="11" width="7" style="23" customWidth="1"/>
+    <col min="12" max="12" width="29" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27" style="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="C1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="37">
+        <v>100126</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="38">
+        <v>3</v>
+      </c>
+      <c r="E2" s="29">
+        <v>15</v>
+      </c>
+      <c r="F2" s="29">
+        <v>7</v>
+      </c>
+      <c r="G2" s="29">
+        <v>7</v>
+      </c>
+      <c r="H2" s="29">
+        <v>10</v>
+      </c>
+      <c r="I2" s="29">
+        <v>7</v>
+      </c>
+      <c r="J2" s="29">
+        <v>14</v>
+      </c>
+      <c r="K2" s="29">
+        <f>SUM(E2:J2)</f>
+        <v>60</v>
+      </c>
+      <c r="L2" s="30"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="29">
+        <v>94554</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="29">
+        <v>10</v>
+      </c>
+      <c r="E3" s="29">
+        <v>17</v>
+      </c>
+      <c r="F3" s="29">
+        <v>12</v>
+      </c>
+      <c r="G3" s="29">
+        <v>5</v>
+      </c>
+      <c r="H3" s="29">
+        <v>10</v>
+      </c>
+      <c r="I3" s="29">
+        <v>7</v>
+      </c>
+      <c r="J3" s="29">
+        <v>12</v>
+      </c>
+      <c r="K3" s="29">
+        <f>SUM(E3:J3)</f>
+        <v>63</v>
+      </c>
+      <c r="L3" s="30"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="29">
+        <v>100773</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="29">
+        <v>5</v>
+      </c>
+      <c r="E4" s="29">
+        <v>13</v>
+      </c>
+      <c r="F4" s="29">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29">
+        <v>7</v>
+      </c>
+      <c r="H4" s="29">
+        <v>13</v>
+      </c>
+      <c r="I4" s="29">
+        <v>8</v>
+      </c>
+      <c r="J4" s="29">
+        <v>13</v>
+      </c>
+      <c r="K4" s="29">
+        <f>SUM(E4:J4)</f>
+        <v>65</v>
+      </c>
+      <c r="L4" s="30"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="29">
+        <v>93102</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="29">
+        <v>8</v>
+      </c>
+      <c r="E5" s="29">
+        <v>15</v>
+      </c>
+      <c r="F5" s="29">
+        <v>12</v>
+      </c>
+      <c r="G5" s="29">
+        <v>7</v>
+      </c>
+      <c r="H5" s="29">
+        <v>14</v>
+      </c>
+      <c r="I5" s="29">
+        <v>7</v>
+      </c>
+      <c r="J5" s="29">
+        <v>20</v>
+      </c>
+      <c r="K5" s="29">
+        <f>SUM(E5:J5)</f>
+        <v>75</v>
+      </c>
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="29">
+        <v>82996</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="29">
+        <v>10</v>
+      </c>
+      <c r="E6" s="29">
+        <v>11</v>
+      </c>
+      <c r="F6" s="29">
+        <v>3</v>
+      </c>
+      <c r="G6" s="29">
+        <v>8</v>
+      </c>
+      <c r="H6" s="29">
+        <v>10</v>
+      </c>
+      <c r="I6" s="29">
+        <v>8</v>
+      </c>
+      <c r="J6" s="29">
+        <v>18</v>
+      </c>
+      <c r="K6" s="29">
+        <f>SUM(E6:J6)</f>
+        <v>58</v>
+      </c>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="27">
+        <v>68105</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
+        <f>SUM(E7:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="29">
+        <v>53913</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1</v>
+      </c>
+      <c r="E8" s="29">
+        <v>12</v>
+      </c>
+      <c r="F8" s="29">
+        <v>9</v>
+      </c>
+      <c r="G8" s="29">
+        <v>7</v>
+      </c>
+      <c r="H8" s="29">
+        <v>12</v>
+      </c>
+      <c r="I8" s="29">
+        <v>8</v>
+      </c>
+      <c r="J8" s="29">
+        <v>14</v>
+      </c>
+      <c r="K8" s="29">
+        <f>SUM(E8:J8)</f>
+        <v>62</v>
+      </c>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="29">
+        <v>53506</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="29">
+        <v>4</v>
+      </c>
+      <c r="E9" s="29">
+        <v>12</v>
+      </c>
+      <c r="F9" s="29">
+        <v>7</v>
+      </c>
+      <c r="G9" s="29">
+        <v>7</v>
+      </c>
+      <c r="H9" s="29">
+        <v>19</v>
+      </c>
+      <c r="I9" s="29">
+        <v>8</v>
+      </c>
+      <c r="J9" s="29">
+        <v>20</v>
+      </c>
+      <c r="K9" s="29">
+        <f>SUM(E9:J9)</f>
+        <v>73</v>
+      </c>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="29">
+        <v>101652</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="E10" s="29">
+        <v>13</v>
+      </c>
+      <c r="F10" s="29">
+        <v>9</v>
+      </c>
+      <c r="G10" s="29">
+        <v>8</v>
+      </c>
+      <c r="H10" s="29">
+        <v>14</v>
+      </c>
+      <c r="I10" s="29">
+        <v>7</v>
+      </c>
+      <c r="J10" s="29">
+        <v>14</v>
+      </c>
+      <c r="K10" s="29">
+        <f>SUM(E10:J10)</f>
+        <v>65</v>
+      </c>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="29">
+        <v>91993</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="29">
+        <v>2</v>
+      </c>
+      <c r="E11" s="29">
+        <v>14</v>
+      </c>
+      <c r="F11" s="29">
+        <v>9</v>
+      </c>
+      <c r="G11" s="29">
+        <v>6</v>
+      </c>
+      <c r="H11" s="29">
+        <v>11</v>
+      </c>
+      <c r="I11" s="29">
+        <v>7</v>
+      </c>
+      <c r="J11" s="29">
+        <v>18</v>
+      </c>
+      <c r="K11" s="29">
+        <f>SUM(E11:J11)</f>
+        <v>65</v>
+      </c>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="29">
+        <v>100049</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="29">
+        <v>7</v>
+      </c>
+      <c r="E12" s="29">
+        <v>10</v>
+      </c>
+      <c r="F12" s="29">
+        <v>9</v>
+      </c>
+      <c r="G12" s="29">
+        <v>7</v>
+      </c>
+      <c r="H12" s="29">
+        <v>12</v>
+      </c>
+      <c r="I12" s="29">
+        <v>6</v>
+      </c>
+      <c r="J12" s="29">
+        <v>20</v>
+      </c>
+      <c r="K12" s="29">
+        <f>SUM(E12:J12)</f>
+        <v>64</v>
+      </c>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="27">
+        <v>55457</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="27">
+        <v>9</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27">
+        <f>SUM(E13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="29">
+        <v>74533</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="29">
+        <v>7</v>
+      </c>
+      <c r="E14" s="29">
+        <v>10</v>
+      </c>
+      <c r="F14" s="29">
+        <v>7</v>
+      </c>
+      <c r="G14" s="29">
+        <v>7</v>
+      </c>
+      <c r="H14" s="29">
+        <v>14</v>
+      </c>
+      <c r="I14" s="29">
+        <v>8</v>
+      </c>
+      <c r="J14" s="29">
+        <v>13</v>
+      </c>
+      <c r="K14" s="29">
+        <f>SUM(E14:J14)</f>
+        <v>59</v>
+      </c>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="29">
+        <v>99609</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="29">
+        <v>5</v>
+      </c>
+      <c r="E15" s="29">
+        <v>13</v>
+      </c>
+      <c r="F15" s="29">
+        <v>8</v>
+      </c>
+      <c r="G15" s="29">
+        <v>7</v>
+      </c>
+      <c r="H15" s="29">
+        <v>12</v>
+      </c>
+      <c r="I15" s="29">
+        <v>7</v>
+      </c>
+      <c r="J15" s="29">
+        <v>17</v>
+      </c>
+      <c r="K15" s="29">
+        <f>SUM(E15:J15)</f>
+        <v>64</v>
+      </c>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="29">
+        <v>83819</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="29">
+        <v>11</v>
+      </c>
+      <c r="E16" s="29">
+        <v>13</v>
+      </c>
+      <c r="F16" s="29">
+        <v>8</v>
+      </c>
+      <c r="G16" s="29">
+        <v>7</v>
+      </c>
+      <c r="H16" s="29">
+        <v>12</v>
+      </c>
+      <c r="I16" s="29">
+        <v>8</v>
+      </c>
+      <c r="J16" s="29">
+        <v>16</v>
+      </c>
+      <c r="K16" s="29">
+        <f>SUM(E16:J16)</f>
+        <v>64</v>
+      </c>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="27">
+        <v>102643</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="27">
+        <v>4</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27">
+        <v>0</v>
+      </c>
+      <c r="I17" s="27">
+        <v>0</v>
+      </c>
+      <c r="J17" s="27">
+        <v>0</v>
+      </c>
+      <c r="K17" s="27">
+        <f>SUM(E17:J17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="29">
+        <v>85799</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="29">
+        <v>5</v>
+      </c>
+      <c r="E18" s="29">
+        <v>14</v>
+      </c>
+      <c r="F18" s="29">
+        <v>8</v>
+      </c>
+      <c r="G18" s="29">
+        <v>7</v>
+      </c>
+      <c r="H18" s="29">
+        <v>0</v>
+      </c>
+      <c r="I18" s="29">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29">
+        <v>0</v>
+      </c>
+      <c r="K18" s="29">
+        <f>SUM(E18:J18)</f>
+        <v>29</v>
+      </c>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="29">
+        <v>84291</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="29">
+        <v>10</v>
+      </c>
+      <c r="E19" s="29">
+        <v>14</v>
+      </c>
+      <c r="F19" s="29">
+        <v>12</v>
+      </c>
+      <c r="G19" s="29">
+        <v>7</v>
+      </c>
+      <c r="H19" s="29">
+        <v>13</v>
+      </c>
+      <c r="I19" s="29">
+        <v>8</v>
+      </c>
+      <c r="J19" s="29">
+        <v>16</v>
+      </c>
+      <c r="K19" s="29">
+        <f>SUM(E19:J19)</f>
+        <v>70</v>
+      </c>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="29">
+        <v>66876</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="29">
+        <v>6</v>
+      </c>
+      <c r="E20" s="29">
+        <v>14</v>
+      </c>
+      <c r="F20" s="29">
+        <v>9</v>
+      </c>
+      <c r="G20" s="29">
+        <v>7</v>
+      </c>
+      <c r="H20" s="29">
+        <v>14</v>
+      </c>
+      <c r="I20" s="29">
+        <v>8</v>
+      </c>
+      <c r="J20" s="29">
+        <v>13</v>
+      </c>
+      <c r="K20" s="29">
+        <f>SUM(E20:J20)</f>
+        <v>65</v>
+      </c>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="29">
+        <v>45245</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="29">
+        <v>2</v>
+      </c>
+      <c r="E21" s="29">
+        <v>17</v>
+      </c>
+      <c r="F21" s="29">
+        <v>8</v>
+      </c>
+      <c r="G21" s="29">
+        <v>8</v>
+      </c>
+      <c r="H21" s="29">
+        <v>14</v>
+      </c>
+      <c r="I21" s="29">
+        <v>6</v>
+      </c>
+      <c r="J21" s="29">
+        <v>12</v>
+      </c>
+      <c r="K21" s="29">
+        <f>SUM(E21:J21)</f>
+        <v>65</v>
+      </c>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="29">
+        <v>93274</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="29">
+        <v>8</v>
+      </c>
+      <c r="E22" s="29">
+        <v>14</v>
+      </c>
+      <c r="F22" s="29">
+        <v>7</v>
+      </c>
+      <c r="G22" s="29">
+        <v>7</v>
+      </c>
+      <c r="H22" s="29">
+        <v>12</v>
+      </c>
+      <c r="I22" s="29">
+        <v>6</v>
+      </c>
+      <c r="J22" s="29">
+        <v>15</v>
+      </c>
+      <c r="K22" s="29">
+        <f>SUM(E22:J22)</f>
+        <v>61</v>
+      </c>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="27">
+        <v>100993</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="27">
+        <v>11</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0</v>
+      </c>
+      <c r="G23" s="27">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27">
+        <v>0</v>
+      </c>
+      <c r="I23" s="27">
+        <v>0</v>
+      </c>
+      <c r="J23" s="27">
+        <v>0</v>
+      </c>
+      <c r="K23" s="27">
+        <f>SUM(E23:J23)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="29">
+        <v>49781</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="29">
+        <v>4</v>
+      </c>
+      <c r="E24" s="29">
+        <v>13</v>
+      </c>
+      <c r="F24" s="29">
+        <v>12</v>
+      </c>
+      <c r="G24" s="29">
+        <v>7</v>
+      </c>
+      <c r="H24" s="29">
+        <v>13</v>
+      </c>
+      <c r="I24" s="29">
+        <v>5</v>
+      </c>
+      <c r="J24" s="29">
+        <v>15</v>
+      </c>
+      <c r="K24" s="29">
+        <f>SUM(E24:J24)</f>
+        <v>65</v>
+      </c>
+      <c r="L24" s="30"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="29">
+        <v>68852</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="29">
+        <v>10</v>
+      </c>
+      <c r="E25" s="29">
+        <v>17</v>
+      </c>
+      <c r="F25" s="29">
+        <v>10</v>
+      </c>
+      <c r="G25" s="29">
+        <v>6</v>
+      </c>
+      <c r="H25" s="29">
+        <v>11</v>
+      </c>
+      <c r="I25" s="29">
+        <v>7</v>
+      </c>
+      <c r="J25" s="29">
+        <v>15</v>
+      </c>
+      <c r="K25" s="29">
+        <f>SUM(E25:J25)</f>
+        <v>66</v>
+      </c>
+      <c r="L25" s="30"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="29">
+        <v>74614</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="29">
+        <v>8</v>
+      </c>
+      <c r="E26" s="29">
+        <v>15</v>
+      </c>
+      <c r="F26" s="29">
+        <v>9</v>
+      </c>
+      <c r="G26" s="29">
+        <v>8</v>
+      </c>
+      <c r="H26" s="29">
+        <v>7</v>
+      </c>
+      <c r="I26" s="29">
+        <v>6</v>
+      </c>
+      <c r="J26" s="29">
+        <v>13</v>
+      </c>
+      <c r="K26" s="29">
+        <f>SUM(E26:J26)</f>
+        <v>58</v>
+      </c>
+      <c r="L26" s="30"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="29">
+        <v>82324</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="29">
+        <v>4</v>
+      </c>
+      <c r="E27" s="29">
+        <v>12</v>
+      </c>
+      <c r="F27" s="29">
+        <v>9</v>
+      </c>
+      <c r="G27" s="29">
+        <v>7</v>
+      </c>
+      <c r="H27" s="29">
+        <v>10</v>
+      </c>
+      <c r="I27" s="29">
+        <v>7</v>
+      </c>
+      <c r="J27" s="29">
+        <v>12</v>
+      </c>
+      <c r="K27" s="29">
+        <f>SUM(E27:J27)</f>
+        <v>57</v>
+      </c>
+      <c r="L27" s="30"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="29">
+        <v>54656</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="29">
+        <v>3</v>
+      </c>
+      <c r="E28" s="29">
+        <v>12</v>
+      </c>
+      <c r="F28" s="29">
+        <v>10</v>
+      </c>
+      <c r="G28" s="29">
+        <v>7</v>
+      </c>
+      <c r="H28" s="29">
+        <v>14</v>
+      </c>
+      <c r="I28" s="29">
+        <v>7</v>
+      </c>
+      <c r="J28" s="29">
+        <v>20</v>
+      </c>
+      <c r="K28" s="29">
+        <f>SUM(E28:J28)</f>
+        <v>70</v>
+      </c>
+      <c r="L28" s="30"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="29">
+        <v>66088</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="29">
+        <v>9</v>
+      </c>
+      <c r="E29" s="29">
+        <v>16</v>
+      </c>
+      <c r="F29" s="29">
+        <v>8</v>
+      </c>
+      <c r="G29" s="29">
+        <v>7</v>
+      </c>
+      <c r="H29" s="29">
+        <v>14</v>
+      </c>
+      <c r="I29" s="29">
+        <v>6</v>
+      </c>
+      <c r="J29" s="29">
+        <v>15</v>
+      </c>
+      <c r="K29" s="29">
+        <f>SUM(E29:J29)</f>
+        <v>66</v>
+      </c>
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="29">
+        <v>102142</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="29">
+        <v>8</v>
+      </c>
+      <c r="E30" s="29">
+        <v>12</v>
+      </c>
+      <c r="F30" s="29">
+        <v>8</v>
+      </c>
+      <c r="G30" s="29">
+        <v>7</v>
+      </c>
+      <c r="H30" s="29">
+        <v>13</v>
+      </c>
+      <c r="I30" s="29">
+        <v>7</v>
+      </c>
+      <c r="J30" s="29">
+        <v>17</v>
+      </c>
+      <c r="K30" s="29">
+        <f>SUM(E30:J30)</f>
+        <v>64</v>
+      </c>
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="29">
+        <v>82761</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="29">
+        <v>9</v>
+      </c>
+      <c r="E31" s="29">
+        <v>14</v>
+      </c>
+      <c r="F31" s="29">
+        <v>8</v>
+      </c>
+      <c r="G31" s="29">
+        <v>8</v>
+      </c>
+      <c r="H31" s="29">
+        <v>13</v>
+      </c>
+      <c r="I31" s="29">
+        <v>7</v>
+      </c>
+      <c r="J31" s="29">
+        <v>15</v>
+      </c>
+      <c r="K31" s="29">
+        <f>SUM(E31:J31)</f>
+        <v>65</v>
+      </c>
+      <c r="L31" s="30"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="29">
+        <v>54356</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="29">
+        <v>11</v>
+      </c>
+      <c r="E32" s="29">
+        <v>14</v>
+      </c>
+      <c r="F32" s="29">
+        <v>8</v>
+      </c>
+      <c r="G32" s="29">
+        <v>8</v>
+      </c>
+      <c r="H32" s="29">
+        <v>14</v>
+      </c>
+      <c r="I32" s="29">
+        <v>7</v>
+      </c>
+      <c r="J32" s="29">
+        <v>20</v>
+      </c>
+      <c r="K32" s="29">
+        <f>SUM(E32:J32)</f>
+        <v>71</v>
+      </c>
+      <c r="L32" s="30"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="29">
+        <v>76252</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="29">
+        <v>6</v>
+      </c>
+      <c r="E33" s="29">
+        <v>14</v>
+      </c>
+      <c r="F33" s="29">
+        <v>7</v>
+      </c>
+      <c r="G33" s="29">
+        <v>7</v>
+      </c>
+      <c r="H33" s="29">
+        <v>13</v>
+      </c>
+      <c r="I33" s="29">
+        <v>7</v>
+      </c>
+      <c r="J33" s="29">
+        <v>15</v>
+      </c>
+      <c r="K33" s="29">
+        <f>SUM(E33:J33)</f>
+        <v>63</v>
+      </c>
+      <c r="L33" s="30"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="29">
+        <v>94596</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="29">
+        <v>2</v>
+      </c>
+      <c r="E34" s="29">
+        <v>13</v>
+      </c>
+      <c r="F34" s="29">
+        <v>8</v>
+      </c>
+      <c r="G34" s="29">
+        <v>8</v>
+      </c>
+      <c r="H34" s="29">
+        <v>14</v>
+      </c>
+      <c r="I34" s="29">
+        <v>8</v>
+      </c>
+      <c r="J34" s="29">
+        <v>20</v>
+      </c>
+      <c r="K34" s="29">
+        <f>SUM(E34:J34)</f>
+        <v>71</v>
+      </c>
+      <c r="L34" s="30"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="29">
+        <v>100404</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="29">
+        <v>3</v>
+      </c>
+      <c r="E35" s="29">
+        <v>15</v>
+      </c>
+      <c r="F35" s="29">
+        <v>9</v>
+      </c>
+      <c r="G35" s="29">
+        <v>6</v>
+      </c>
+      <c r="H35" s="29">
+        <v>13</v>
+      </c>
+      <c r="I35" s="29">
+        <v>6</v>
+      </c>
+      <c r="J35" s="29">
+        <v>16</v>
+      </c>
+      <c r="K35" s="29">
+        <f>SUM(E35:J35)</f>
+        <v>65</v>
+      </c>
+      <c r="L35" s="30"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="29">
+        <v>86123</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="29">
+        <v>9</v>
+      </c>
+      <c r="E36" s="29">
+        <v>14</v>
+      </c>
+      <c r="F36" s="29">
+        <v>9</v>
+      </c>
+      <c r="G36" s="29">
+        <v>8</v>
+      </c>
+      <c r="H36" s="29">
+        <v>14</v>
+      </c>
+      <c r="I36" s="29">
+        <v>7</v>
+      </c>
+      <c r="J36" s="29">
+        <v>15</v>
+      </c>
+      <c r="K36" s="29">
+        <f>SUM(E36:J36)</f>
+        <v>67</v>
+      </c>
+      <c r="L36" s="30"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="29">
+        <v>74763</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="29">
+        <v>5</v>
+      </c>
+      <c r="E37" s="29">
+        <v>12</v>
+      </c>
+      <c r="F37" s="29">
+        <v>9</v>
+      </c>
+      <c r="G37" s="29">
+        <v>7</v>
+      </c>
+      <c r="H37" s="29">
+        <v>13</v>
+      </c>
+      <c r="I37" s="29">
+        <v>7</v>
+      </c>
+      <c r="J37" s="29">
+        <v>13</v>
+      </c>
+      <c r="K37" s="29">
+        <f>SUM(E37:J37)</f>
+        <v>61</v>
+      </c>
+      <c r="L37" s="30"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="29">
+        <v>99559</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="29">
+        <v>3</v>
+      </c>
+      <c r="E38" s="29">
+        <v>12</v>
+      </c>
+      <c r="F38" s="29">
+        <v>10</v>
+      </c>
+      <c r="G38" s="29">
+        <v>9</v>
+      </c>
+      <c r="H38" s="29">
+        <v>18</v>
+      </c>
+      <c r="I38" s="29">
+        <v>8</v>
+      </c>
+      <c r="J38" s="29">
+        <v>15</v>
+      </c>
+      <c r="K38" s="29">
+        <f>SUM(E38:J38)</f>
+        <v>72</v>
+      </c>
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="29">
+        <v>84997</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="29">
+        <v>1</v>
+      </c>
+      <c r="E39" s="29">
+        <v>17</v>
+      </c>
+      <c r="F39" s="29">
+        <v>11</v>
+      </c>
+      <c r="G39" s="29">
+        <v>8</v>
+      </c>
+      <c r="H39" s="29">
+        <v>17</v>
+      </c>
+      <c r="I39" s="29">
+        <v>8</v>
+      </c>
+      <c r="J39" s="29">
+        <v>20</v>
+      </c>
+      <c r="K39" s="29">
+        <f>SUM(E39:J39)</f>
+        <v>81</v>
+      </c>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="29">
+        <v>93200</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="29">
+        <v>6</v>
+      </c>
+      <c r="E40" s="29">
+        <v>17</v>
+      </c>
+      <c r="F40" s="29">
+        <v>12</v>
+      </c>
+      <c r="G40" s="29">
+        <v>7</v>
+      </c>
+      <c r="H40" s="29">
+        <v>18</v>
+      </c>
+      <c r="I40" s="29">
+        <v>7</v>
+      </c>
+      <c r="J40" s="29">
+        <v>20</v>
+      </c>
+      <c r="K40" s="29">
+        <f>SUM(E40:J40)</f>
+        <v>81</v>
+      </c>
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="29">
+        <v>67841</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="29">
+        <v>7</v>
+      </c>
+      <c r="E41" s="29">
+        <v>15</v>
+      </c>
+      <c r="F41" s="29">
+        <v>10</v>
+      </c>
+      <c r="G41" s="29">
+        <v>8</v>
+      </c>
+      <c r="H41" s="29">
+        <v>13</v>
+      </c>
+      <c r="I41" s="29">
+        <v>8</v>
+      </c>
+      <c r="J41" s="29">
+        <v>18</v>
+      </c>
+      <c r="K41" s="29">
+        <f>SUM(E41:J41)</f>
+        <v>72</v>
+      </c>
+      <c r="L41" s="30"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="12">
-        <f>COUNTIF($B$2:$B$61,"&gt;=0")</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>74</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="B42" s="29">
+        <v>53323</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="29">
         <v>1</v>
       </c>
-      <c r="F4" s="13">
-        <f>AVERAGE($B$2:$B$61)</f>
-        <v>60.307692307692307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>74</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="14">
-        <f>STDEV($B$2:$B$61)</f>
-        <v>19.542301258079579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>54</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="E42" s="29">
+        <v>13</v>
+      </c>
+      <c r="F42" s="29">
+        <v>12</v>
+      </c>
+      <c r="G42" s="29">
+        <v>7</v>
+      </c>
+      <c r="H42" s="29">
+        <v>12</v>
+      </c>
+      <c r="I42" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
-        <v>65</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="J42" s="29">
+        <v>17</v>
+      </c>
+      <c r="K42" s="29">
+        <f>SUM(E42:J42)</f>
+        <v>67</v>
+      </c>
+      <c r="L42" s="30"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="29">
+        <v>37748</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="29">
+        <v>6</v>
+      </c>
+      <c r="E43" s="29">
+        <v>13</v>
+      </c>
+      <c r="F43" s="29">
+        <v>8</v>
+      </c>
+      <c r="G43" s="29">
+        <v>7</v>
+      </c>
+      <c r="H43" s="29">
+        <v>14</v>
+      </c>
+      <c r="I43" s="29">
+        <v>6</v>
+      </c>
+      <c r="J43" s="29">
+        <v>14</v>
+      </c>
+      <c r="K43" s="29">
+        <f>SUM(E43:J43)</f>
+        <v>62</v>
+      </c>
+      <c r="L43" s="30"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="29">
+        <v>74456</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="29">
+        <v>7</v>
+      </c>
+      <c r="E44" s="29">
+        <v>13</v>
+      </c>
+      <c r="F44" s="29">
         <v>12</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="16">
-        <f>(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85"))/$F$3</f>
-        <v>0.11538461538461539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G44" s="29">
+        <v>7</v>
+      </c>
+      <c r="H44" s="29">
+        <v>12</v>
+      </c>
+      <c r="I44" s="29">
+        <v>6</v>
+      </c>
+      <c r="J44" s="29">
+        <v>14</v>
+      </c>
+      <c r="K44" s="29">
+        <f>SUM(E44:J44)</f>
+        <v>64</v>
+      </c>
+      <c r="L44" s="30"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="28">
+        <v>20</v>
+      </c>
+      <c r="F45" s="28">
+        <v>15</v>
+      </c>
+      <c r="G45" s="28">
+        <v>10</v>
+      </c>
+      <c r="H45" s="28">
+        <v>20</v>
+      </c>
+      <c r="I45" s="28">
+        <v>10</v>
+      </c>
+      <c r="J45" s="28">
         <v>25</v>
       </c>
-      <c r="I9" s="16">
-        <f>(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3</f>
-        <v>3.8461538461538464E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="K45" s="28">
+        <f>SUM(E45:J45)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="28">
+        <v>20</v>
+      </c>
+      <c r="F46" s="28">
+        <v>15</v>
+      </c>
+      <c r="G46" s="28">
         <v>10</v>
       </c>
-      <c r="G10" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="16">
-        <f>(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75"))/$F$3</f>
-        <v>3.8461538461538464E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="H46" s="28">
+        <v>20</v>
+      </c>
+      <c r="I46" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="3">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="16">
-        <f>(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3</f>
-        <v>0.15384615384615385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="16">
-        <f>(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3</f>
-        <v>0.15384615384615385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8">
-        <v>86</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="16">
-        <f>(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60"))/$F$3</f>
-        <v>0.11538461538461539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="16">
-        <f>(COUNTIF($B$2:$B$61,"&lt;60")-COUNTIF($B$2:$B$61,"&lt;55"))/$F$3</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="16">
-        <f>(COUNTIF($B$2:$B$61,"&lt;55")-COUNTIF($B$2:$B$61,"&lt;50"))/$F$3</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="16">
-        <f>(COUNTIF($B$2:$B$61,"&lt;50")-COUNTIF($B$2:$B$61,"&lt;45"))/$F$3</f>
-        <v>3.8461538461538464E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="16">
-        <f>(COUNTIF($B$2:$B$61,"&lt;45")-COUNTIF($B$2:$B$61,"&lt;40"))/$F$3</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8">
-        <v>43</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="17">
-        <f>COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0")</f>
-        <v>0.11538461538461539</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="J46" s="28">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>51</v>
-      </c>
-      <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>52</v>
-      </c>
-      <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>53</v>
-      </c>
-      <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>54</v>
-      </c>
-      <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>55</v>
-      </c>
-      <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <v>56</v>
-      </c>
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>57</v>
-      </c>
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>58</v>
-      </c>
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>59</v>
-      </c>
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
-      <c r="B61" s="9"/>
+      <c r="K46" s="28"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="K47" s="28"/>
     </row>
   </sheetData>
-  <dataConsolidate/>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>"or(""&lt;60"",""&gt;64"")"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
-  </dataValidations>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L47">
+    <sortCondition ref="A1:A47"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>